--- a/test/files/BFR5-Female-Questionnaire-v6-jef.xlsx
+++ b/test/files/BFR5-Female-Questionnaire-v6-jef.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="27526"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="51200" windowHeight="26540" activeTab="4"/>
+    <workbookView xWindow="480" yWindow="480" windowWidth="25120" windowHeight="15320" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -8479,9 +8479,6 @@
     <t>Added ppp_form_title.</t>
   </si>
   <si>
-    <t>ppp_form_title::French</t>
-  </si>
-  <si>
     <r>
       <t>BFR5-Female-Questionnaire-</t>
     </r>
@@ -8554,6 +8551,9 @@
   </si>
   <si>
     <t>Updated ppp_relevant.</t>
+  </si>
+  <si>
+    <t>ppp_form_title::Français</t>
   </si>
 </sst>
 </file>
@@ -13281,7 +13281,7 @@
         <v>21</v>
       </c>
       <c r="C4" s="73" t="s">
-        <v>2604</v>
+        <v>2603</v>
       </c>
       <c r="D4" s="73"/>
       <c r="E4" s="73"/>
@@ -15081,7 +15081,7 @@
         <v>109</v>
       </c>
       <c r="C54" s="77" t="s">
-        <v>2607</v>
+        <v>2606</v>
       </c>
       <c r="D54" s="77" t="s">
         <v>110</v>
@@ -15105,13 +15105,13 @@
         <v>2556</v>
       </c>
       <c r="R54" s="77" t="s">
+        <v>2606</v>
+      </c>
+      <c r="T54" s="77" t="s">
         <v>2607</v>
       </c>
-      <c r="T54" s="77" t="s">
-        <v>2608</v>
-      </c>
       <c r="V54" s="77" t="s">
-        <v>2608</v>
+        <v>2607</v>
       </c>
       <c r="W54" s="77" t="s">
         <v>112</v>
@@ -28020,7 +28020,7 @@
         <v>1087</v>
       </c>
       <c r="C308" s="77" t="s">
-        <v>2611</v>
+        <v>2610</v>
       </c>
       <c r="D308" s="77" t="s">
         <v>1054</v>
@@ -28044,7 +28044,7 @@
       <c r="O308" s="77"/>
       <c r="Q308" s="77"/>
       <c r="R308" s="77" t="s">
-        <v>2611</v>
+        <v>2610</v>
       </c>
       <c r="S308" s="78" t="s">
         <v>1954</v>
@@ -28095,11 +28095,11 @@
         <v>1586</v>
       </c>
       <c r="S309" s="78" t="s">
-        <v>2617</v>
+        <v>2616</v>
       </c>
       <c r="T309" s="77"/>
       <c r="U309" s="78" t="s">
-        <v>2618</v>
+        <v>2617</v>
       </c>
       <c r="V309" s="77" t="s">
         <v>2218</v>
@@ -32220,7 +32220,7 @@
         <v>1870</v>
       </c>
       <c r="C379" s="117" t="s">
-        <v>2605</v>
+        <v>2604</v>
       </c>
       <c r="D379" s="117"/>
       <c r="E379" s="117"/>
@@ -32241,7 +32241,7 @@
         <v>2556</v>
       </c>
       <c r="R379" s="117" t="s">
-        <v>2605</v>
+        <v>2604</v>
       </c>
       <c r="S379" s="120"/>
       <c r="T379" s="129"/>
@@ -38964,8 +38964,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -38997,15 +38997,15 @@
         <v>995</v>
       </c>
       <c r="G1" s="24" t="s">
-        <v>2599</v>
+        <v>2620</v>
       </c>
     </row>
     <row r="2" spans="1:7" s="26" customFormat="1" ht="70">
       <c r="A2" s="39" t="s">
+        <v>2599</v>
+      </c>
+      <c r="B2" s="33" t="s">
         <v>2600</v>
-      </c>
-      <c r="B2" s="33" t="s">
-        <v>2601</v>
       </c>
       <c r="C2" s="33" t="s">
         <v>722</v>
@@ -39020,7 +39020,7 @@
         <v>996</v>
       </c>
       <c r="G2" s="26" t="s">
-        <v>2602</v>
+        <v>2601</v>
       </c>
     </row>
   </sheetData>
@@ -39602,9 +39602,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G189"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="160" workbookViewId="0">
+    <sheetView zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="160" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A176" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A187" sqref="A187:F189"/>
+      <selection pane="bottomLeft" activeCell="F179" sqref="F179"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" customHeight="1" x14ac:dyDescent="0"/>
@@ -43238,7 +43238,7 @@
         <v>21</v>
       </c>
       <c r="F183" s="24" t="s">
-        <v>2603</v>
+        <v>2602</v>
       </c>
     </row>
     <row r="184" spans="1:6" ht="13" customHeight="1">
@@ -43258,7 +43258,7 @@
         <v>109</v>
       </c>
       <c r="F184" s="24" t="s">
-        <v>2606</v>
+        <v>2605</v>
       </c>
     </row>
     <row r="185" spans="1:6" ht="13" customHeight="1">
@@ -43278,7 +43278,7 @@
         <v>1870</v>
       </c>
       <c r="F185" s="24" t="s">
-        <v>2606</v>
+        <v>2605</v>
       </c>
     </row>
     <row r="186" spans="1:6" ht="13" customHeight="1">
@@ -43295,10 +43295,10 @@
         <v>1271</v>
       </c>
       <c r="E186" s="24" t="s">
+        <v>2608</v>
+      </c>
+      <c r="F186" s="24" t="s">
         <v>2609</v>
-      </c>
-      <c r="F186" s="24" t="s">
-        <v>2610</v>
       </c>
     </row>
     <row r="187" spans="1:6" ht="13" customHeight="1">
@@ -43312,13 +43312,13 @@
         <v>1362</v>
       </c>
       <c r="D187" s="24" t="s">
-        <v>2614</v>
+        <v>2613</v>
       </c>
       <c r="E187" s="24" t="s">
-        <v>2613</v>
+        <v>2612</v>
       </c>
       <c r="F187" s="24" t="s">
-        <v>2612</v>
+        <v>2611</v>
       </c>
     </row>
     <row r="188" spans="1:6" ht="13" customHeight="1">
@@ -43335,10 +43335,10 @@
         <v>1271</v>
       </c>
       <c r="E188" s="24" t="s">
+        <v>2614</v>
+      </c>
+      <c r="F188" s="24" t="s">
         <v>2615</v>
-      </c>
-      <c r="F188" s="24" t="s">
-        <v>2616</v>
       </c>
     </row>
     <row r="189" spans="1:6" ht="13" customHeight="1">
@@ -43355,10 +43355,10 @@
         <v>1271</v>
       </c>
       <c r="E189" s="24" t="s">
+        <v>2618</v>
+      </c>
+      <c r="F189" s="24" t="s">
         <v>2619</v>
-      </c>
-      <c r="F189" s="24" t="s">
-        <v>2620</v>
       </c>
     </row>
   </sheetData>
